--- a/CURRENT WORK/RESULT GRAPHS/OUR WORK GRAPHS/N=4 RESULT GRAPHS.xlsx
+++ b/CURRENT WORK/RESULT GRAPHS/OUR WORK GRAPHS/N=4 RESULT GRAPHS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\RESULT GRAPHS\OUR WORK GRAPHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17C2D8D-4A30-4062-B18A-93C530F19C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8976DBC4-044A-41D6-8159-32B17E7F0B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaCl2" sheetId="1" r:id="rId1"/>
@@ -5169,159 +5169,159 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="216"/>
                 <c:pt idx="3">
+                  <c:v>1.1599E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2728E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7306899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.14638200000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7306899999999998E-2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2728E-2</c:v>
+                  <c:v>0.15426799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1599E-2</c:v>
+                  <c:v>0.15471199999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.15515899999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15471199999999999</c:v>
+                  <c:v>0.15022199999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15426799999999999</c:v>
+                  <c:v>0.149034</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15022199999999999</c:v>
+                  <c:v>0.146284</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.149034</c:v>
+                  <c:v>0.14768200000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.146284</c:v>
+                  <c:v>0.145094</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14768200000000001</c:v>
+                  <c:v>0.142119</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.145094</c:v>
+                  <c:v>0.140739</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.142119</c:v>
+                  <c:v>0.13941500000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.140739</c:v>
+                  <c:v>0.138934</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13941500000000001</c:v>
+                  <c:v>0.13830700000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.138934</c:v>
+                  <c:v>0.137847</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13830700000000001</c:v>
+                  <c:v>0.137546</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.137847</c:v>
+                  <c:v>0.13739699999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.137546</c:v>
+                  <c:v>0.137102</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.13739699999999999</c:v>
+                  <c:v>0.13695599999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.137102</c:v>
+                  <c:v>0.13582900000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.13695599999999999</c:v>
+                  <c:v>0.13542499999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.13582900000000001</c:v>
+                  <c:v>0.135293</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.13542499999999999</c:v>
+                  <c:v>0.13439899999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.135293</c:v>
+                  <c:v>0.13391400000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.13439899999999999</c:v>
+                  <c:v>0.133796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.13391400000000001</c:v>
+                  <c:v>0.13356299999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.133796</c:v>
+                  <c:v>0.132077</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.13356299999999999</c:v>
+                  <c:v>0.13117200000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.132077</c:v>
+                  <c:v>0.13100700000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.13117200000000001</c:v>
+                  <c:v>0.13092699999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.13100700000000001</c:v>
+                  <c:v>0.130694</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.13092699999999999</c:v>
+                  <c:v>0.13001199999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.130694</c:v>
+                  <c:v>0.129302</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.13001199999999999</c:v>
+                  <c:v>0.12926299999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.129302</c:v>
+                  <c:v>0.12889300000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.12926299999999999</c:v>
+                  <c:v>0.12886</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.12889300000000001</c:v>
+                  <c:v>0.128801</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.12886</c:v>
+                  <c:v>0.12879699999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.128801</c:v>
+                  <c:v>0.12882299999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.12879699999999999</c:v>
+                  <c:v>0.128861</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.12882299999999999</c:v>
+                  <c:v>0.12895899999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.128861</c:v>
+                  <c:v>0.12898399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.12895899999999999</c:v>
+                  <c:v>0.12901000000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.12898399999999999</c:v>
+                  <c:v>0.12909999999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.12901000000000001</c:v>
+                  <c:v>0.12928600000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.12909999999999999</c:v>
+                  <c:v>0.12941900000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.12928600000000001</c:v>
+                  <c:v>0.12951599999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.12941900000000001</c:v>
+                  <c:v>0.12956799999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.12951599999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.12956799999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
                   <c:v>0.12962099999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -5334,159 +5334,159 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="216"/>
                 <c:pt idx="3">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>263</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>266</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>267</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>268</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>260</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>262</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>285</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>294</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>296</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>299</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>302</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>320</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>328</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>336</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>339</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>343</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>346</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>348</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>349</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>351</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>352</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>360</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>363</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>364</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>371</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>375</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>376</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>378</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>392</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>402</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>404</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>405</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>408</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>418</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>432</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>433</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>446</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>448</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>454</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>455</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>463</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>466</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>470</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>471</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>472</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>475</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>480</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>483</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="56">
                   <c:v>487</c:v>
                 </c:pt>
               </c:numCache>
@@ -25210,7 +25210,7 @@
       <sheetName val="Comparision graph"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="9">
           <cell r="AZ9">
@@ -26135,9 +26135,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -26157,7 +26157,7 @@
       <sheetName val="Comparition Graph"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="9">
           <cell r="AW9">
@@ -26642,8 +26642,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="3">
           <cell r="A3">
@@ -26685,10 +26685,10 @@
             <v>263.97715944664998</v>
           </cell>
           <cell r="D7">
-            <v>0.14638200000000001</v>
+            <v>1.1599E-2</v>
           </cell>
           <cell r="E7">
-            <v>263</v>
+            <v>268</v>
           </cell>
         </row>
         <row r="8">
@@ -26698,6 +26698,12 @@
           <cell r="B8">
             <v>260.064009513982</v>
           </cell>
+          <cell r="D8">
+            <v>1.2728E-2</v>
+          </cell>
+          <cell r="E8">
+            <v>267</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9">
@@ -26706,6 +26712,12 @@
           <cell r="B9">
             <v>254.423826929467</v>
           </cell>
+          <cell r="D9">
+            <v>7.7306899999999998E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>266</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10">
@@ -26715,10 +26727,10 @@
             <v>252.75800556148201</v>
           </cell>
           <cell r="D10">
-            <v>7.7306899999999998E-2</v>
+            <v>0.14638200000000001</v>
           </cell>
           <cell r="E10">
-            <v>266</v>
+            <v>263</v>
           </cell>
         </row>
         <row r="11">
@@ -26729,10 +26741,10 @@
             <v>255.604330261109</v>
           </cell>
           <cell r="D11">
-            <v>1.2728E-2</v>
+            <v>0.15426799999999999</v>
           </cell>
           <cell r="E11">
-            <v>267</v>
+            <v>262</v>
           </cell>
         </row>
         <row r="12">
@@ -26743,10 +26755,10 @@
             <v>256.74023680022299</v>
           </cell>
           <cell r="D12">
-            <v>1.1599E-2</v>
+            <v>0.15471199999999999</v>
           </cell>
           <cell r="E12">
-            <v>268</v>
+            <v>260</v>
           </cell>
         </row>
         <row r="13">
@@ -26771,10 +26783,10 @@
             <v>263.56791829167997</v>
           </cell>
           <cell r="D14">
-            <v>0.15471199999999999</v>
+            <v>0.15022199999999999</v>
           </cell>
           <cell r="E14">
-            <v>260</v>
+            <v>285</v>
           </cell>
         </row>
         <row r="15">
@@ -26785,10 +26797,10 @@
             <v>268.12028891725902</v>
           </cell>
           <cell r="D15">
-            <v>0.15426799999999999</v>
+            <v>0.149034</v>
           </cell>
           <cell r="E15">
-            <v>262</v>
+            <v>294</v>
           </cell>
         </row>
         <row r="16">
@@ -26799,10 +26811,10 @@
             <v>272.10252015600099</v>
           </cell>
           <cell r="D16">
-            <v>0.15022199999999999</v>
+            <v>0.146284</v>
           </cell>
           <cell r="E16">
-            <v>285</v>
+            <v>296</v>
           </cell>
         </row>
         <row r="17">
@@ -26813,10 +26825,10 @@
             <v>281.77127966561102</v>
           </cell>
           <cell r="D17">
-            <v>0.149034</v>
+            <v>0.14768200000000001</v>
           </cell>
           <cell r="E17">
-            <v>294</v>
+            <v>299</v>
           </cell>
         </row>
         <row r="18">
@@ -26827,10 +26839,10 @@
             <v>289.16647720316899</v>
           </cell>
           <cell r="D18">
-            <v>0.146284</v>
+            <v>0.145094</v>
           </cell>
           <cell r="E18">
-            <v>296</v>
+            <v>302</v>
           </cell>
         </row>
         <row r="19">
@@ -26841,10 +26853,10 @@
             <v>295.992409800801</v>
           </cell>
           <cell r="D19">
-            <v>0.14768200000000001</v>
+            <v>0.142119</v>
           </cell>
           <cell r="E19">
-            <v>299</v>
+            <v>320</v>
           </cell>
         </row>
         <row r="20">
@@ -26855,10 +26867,10 @@
             <v>303.38848178527002</v>
           </cell>
           <cell r="D20">
-            <v>0.145094</v>
+            <v>0.140739</v>
           </cell>
           <cell r="E20">
-            <v>302</v>
+            <v>328</v>
           </cell>
         </row>
         <row r="21">
@@ -26869,10 +26881,10 @@
             <v>307.37071302401199</v>
           </cell>
           <cell r="D21">
-            <v>0.142119</v>
+            <v>0.13941500000000001</v>
           </cell>
           <cell r="E21">
-            <v>320</v>
+            <v>336</v>
           </cell>
         </row>
         <row r="22">
@@ -26883,10 +26895,10 @@
             <v>313.63000402245501</v>
           </cell>
           <cell r="D22">
-            <v>0.140739</v>
+            <v>0.138934</v>
           </cell>
           <cell r="E22">
-            <v>328</v>
+            <v>339</v>
           </cell>
         </row>
         <row r="23">
@@ -26897,10 +26909,10 @@
             <v>319.89104391472398</v>
           </cell>
           <cell r="D23">
-            <v>0.13941500000000001</v>
+            <v>0.13830700000000001</v>
           </cell>
           <cell r="E23">
-            <v>336</v>
+            <v>343</v>
           </cell>
         </row>
         <row r="24">
@@ -26911,10 +26923,10 @@
             <v>323.87152625964001</v>
           </cell>
           <cell r="D24">
-            <v>0.138934</v>
+            <v>0.137847</v>
           </cell>
           <cell r="E24">
-            <v>339</v>
+            <v>346</v>
           </cell>
         </row>
         <row r="25">
@@ -26925,10 +26937,10 @@
             <v>327.28536700536898</v>
           </cell>
           <cell r="D25">
-            <v>0.13830700000000001</v>
+            <v>0.137546</v>
           </cell>
           <cell r="E25">
-            <v>343</v>
+            <v>348</v>
           </cell>
         </row>
         <row r="26">
@@ -26939,10 +26951,10 @@
             <v>339.23118627468102</v>
           </cell>
           <cell r="D26">
-            <v>0.137847</v>
+            <v>0.13739699999999999</v>
           </cell>
           <cell r="E26">
-            <v>346</v>
+            <v>349</v>
           </cell>
         </row>
         <row r="27">
@@ -26953,10 +26965,10 @@
             <v>348.90694135959001</v>
           </cell>
           <cell r="D27">
-            <v>0.137546</v>
+            <v>0.137102</v>
           </cell>
           <cell r="E27">
-            <v>348</v>
+            <v>351</v>
           </cell>
         </row>
         <row r="28">
@@ -26967,10 +26979,10 @@
             <v>350.04109900487902</v>
           </cell>
           <cell r="D28">
-            <v>0.13739699999999999</v>
+            <v>0.13695599999999999</v>
           </cell>
           <cell r="E28">
-            <v>349</v>
+            <v>352</v>
           </cell>
         </row>
         <row r="29">
@@ -26981,10 +26993,10 @@
             <v>365.41125238286702</v>
           </cell>
           <cell r="D29">
-            <v>0.137102</v>
+            <v>0.13582900000000001</v>
           </cell>
           <cell r="E29">
-            <v>351</v>
+            <v>360</v>
           </cell>
         </row>
         <row r="30">
@@ -26995,10 +27007,10 @@
             <v>368.82334423477101</v>
           </cell>
           <cell r="D30">
-            <v>0.13695599999999999</v>
+            <v>0.13542499999999999</v>
           </cell>
           <cell r="E30">
-            <v>352</v>
+            <v>363</v>
           </cell>
         </row>
         <row r="31">
@@ -27009,10 +27021,10 @@
             <v>372.806449920425</v>
           </cell>
           <cell r="D31">
-            <v>0.13582900000000001</v>
+            <v>0.135293</v>
           </cell>
           <cell r="E31">
-            <v>360</v>
+            <v>364</v>
           </cell>
         </row>
         <row r="32">
@@ -27023,10 +27035,10 @@
             <v>377.36056943982902</v>
           </cell>
           <cell r="D32">
-            <v>0.13542499999999999</v>
+            <v>0.13439899999999999</v>
           </cell>
           <cell r="E32">
-            <v>363</v>
+            <v>371</v>
           </cell>
         </row>
         <row r="33">
@@ -27037,10 +27049,10 @@
             <v>418.33452841078002</v>
           </cell>
           <cell r="D33">
-            <v>0.135293</v>
+            <v>0.13391400000000001</v>
           </cell>
           <cell r="E33">
-            <v>364</v>
+            <v>375</v>
           </cell>
         </row>
         <row r="34">
@@ -27051,10 +27063,10 @@
             <v>461.02590111754301</v>
           </cell>
           <cell r="D34">
-            <v>0.13439899999999999</v>
+            <v>0.133796</v>
           </cell>
           <cell r="E34">
-            <v>371</v>
+            <v>376</v>
           </cell>
         </row>
         <row r="35">
@@ -27065,209 +27077,193 @@
             <v>488.35324157470399</v>
           </cell>
           <cell r="D35">
-            <v>0.13391400000000001</v>
+            <v>0.13356299999999999</v>
           </cell>
           <cell r="E35">
-            <v>375</v>
+            <v>378</v>
           </cell>
         </row>
         <row r="36">
           <cell r="D36">
-            <v>0.133796</v>
+            <v>0.132077</v>
           </cell>
           <cell r="E36">
-            <v>376</v>
+            <v>392</v>
           </cell>
         </row>
         <row r="37">
           <cell r="D37">
-            <v>0.13356299999999999</v>
+            <v>0.13117200000000001</v>
           </cell>
           <cell r="E37">
-            <v>378</v>
+            <v>402</v>
           </cell>
         </row>
         <row r="38">
           <cell r="D38">
-            <v>0.132077</v>
+            <v>0.13100700000000001</v>
           </cell>
           <cell r="E38">
-            <v>392</v>
+            <v>404</v>
           </cell>
         </row>
         <row r="39">
           <cell r="D39">
-            <v>0.13117200000000001</v>
+            <v>0.13092699999999999</v>
           </cell>
           <cell r="E39">
-            <v>402</v>
+            <v>405</v>
           </cell>
         </row>
         <row r="40">
           <cell r="D40">
-            <v>0.13100700000000001</v>
+            <v>0.130694</v>
           </cell>
           <cell r="E40">
-            <v>404</v>
+            <v>408</v>
           </cell>
         </row>
         <row r="41">
           <cell r="D41">
-            <v>0.13092699999999999</v>
+            <v>0.13001199999999999</v>
           </cell>
           <cell r="E41">
-            <v>405</v>
+            <v>418</v>
           </cell>
         </row>
         <row r="42">
           <cell r="D42">
-            <v>0.130694</v>
+            <v>0.129302</v>
           </cell>
           <cell r="E42">
-            <v>408</v>
+            <v>432</v>
           </cell>
         </row>
         <row r="43">
           <cell r="D43">
-            <v>0.13001199999999999</v>
+            <v>0.12926299999999999</v>
           </cell>
           <cell r="E43">
-            <v>418</v>
+            <v>433</v>
           </cell>
         </row>
         <row r="44">
           <cell r="D44">
-            <v>0.129302</v>
+            <v>0.12889300000000001</v>
           </cell>
           <cell r="E44">
-            <v>432</v>
+            <v>446</v>
           </cell>
         </row>
         <row r="45">
           <cell r="D45">
-            <v>0.12926299999999999</v>
+            <v>0.12886</v>
           </cell>
           <cell r="E45">
-            <v>433</v>
+            <v>448</v>
           </cell>
         </row>
         <row r="46">
           <cell r="D46">
-            <v>0.12889300000000001</v>
+            <v>0.128801</v>
           </cell>
           <cell r="E46">
-            <v>446</v>
+            <v>454</v>
           </cell>
         </row>
         <row r="47">
           <cell r="D47">
-            <v>0.12886</v>
+            <v>0.12879699999999999</v>
           </cell>
           <cell r="E47">
-            <v>448</v>
+            <v>455</v>
           </cell>
         </row>
         <row r="48">
           <cell r="D48">
-            <v>0.128801</v>
+            <v>0.12882299999999999</v>
           </cell>
           <cell r="E48">
-            <v>454</v>
+            <v>463</v>
           </cell>
         </row>
         <row r="49">
           <cell r="D49">
-            <v>0.12879699999999999</v>
+            <v>0.128861</v>
           </cell>
           <cell r="E49">
-            <v>455</v>
+            <v>466</v>
           </cell>
         </row>
         <row r="50">
           <cell r="D50">
-            <v>0.12882299999999999</v>
+            <v>0.12895899999999999</v>
           </cell>
           <cell r="E50">
-            <v>463</v>
+            <v>470</v>
           </cell>
         </row>
         <row r="51">
           <cell r="D51">
-            <v>0.128861</v>
+            <v>0.12898399999999999</v>
           </cell>
           <cell r="E51">
-            <v>466</v>
+            <v>471</v>
           </cell>
         </row>
         <row r="52">
           <cell r="D52">
-            <v>0.12895899999999999</v>
+            <v>0.12901000000000001</v>
           </cell>
           <cell r="E52">
-            <v>470</v>
+            <v>472</v>
           </cell>
         </row>
         <row r="53">
           <cell r="D53">
-            <v>0.12898399999999999</v>
+            <v>0.12909999999999999</v>
           </cell>
           <cell r="E53">
-            <v>471</v>
+            <v>475</v>
           </cell>
         </row>
         <row r="54">
           <cell r="D54">
-            <v>0.12901000000000001</v>
+            <v>0.12928600000000001</v>
           </cell>
           <cell r="E54">
-            <v>472</v>
+            <v>480</v>
           </cell>
         </row>
         <row r="55">
           <cell r="D55">
-            <v>0.12909999999999999</v>
+            <v>0.12941900000000001</v>
           </cell>
           <cell r="E55">
-            <v>475</v>
+            <v>483</v>
           </cell>
         </row>
         <row r="56">
           <cell r="D56">
-            <v>0.12928600000000001</v>
+            <v>0.12951599999999999</v>
           </cell>
           <cell r="E56">
-            <v>480</v>
+            <v>485</v>
           </cell>
         </row>
         <row r="57">
           <cell r="D57">
-            <v>0.12941900000000001</v>
+            <v>0.12956799999999999</v>
           </cell>
           <cell r="E57">
-            <v>483</v>
+            <v>486</v>
           </cell>
         </row>
         <row r="58">
           <cell r="D58">
-            <v>0.12951599999999999</v>
+            <v>0.12962099999999999</v>
           </cell>
           <cell r="E58">
-            <v>485</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59">
-            <v>0.12956799999999999</v>
-          </cell>
-          <cell r="E59">
-            <v>486</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60">
-            <v>0.12962099999999999</v>
-          </cell>
-          <cell r="E60">
             <v>487</v>
           </cell>
         </row>
@@ -27838,8 +27834,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="A3">
@@ -30419,7 +30415,7 @@
       <sheetName val="Comparision graph"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="8">
           <cell r="AW8">
@@ -30798,8 +30794,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="3">
           <cell r="A3">
@@ -34203,8 +34199,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="A2">
@@ -37189,7 +37185,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37204,7 +37200,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37218,8 +37214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0B0CBA-D2CB-4C3C-B451-11C97C4DA137}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37233,8 +37229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96449D14-010C-4770-81BE-221AFBE6CC04}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
